--- a/PFOS/Data/HPLC_P.xlsx
+++ b/PFOS/Data/HPLC_P.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4795f5e3347afba5/Desktop/Dissertation/Lake_Murray/2024-25_Lake_Murray_Bioassays/PFOS/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{44CFB0DC-A7B4-4300-A4A7-832CD6DB97E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAA1F2FB-FFFF-4BCC-B4D1-8D103273811B}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{44CFB0DC-A7B4-4300-A4A7-832CD6DB97E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3FFA1BF-A5AD-4615-9FA2-989037630073}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4F15C88E-56BB-4DB7-B2CD-E499D21DD55A}"/>
   </bookViews>
@@ -172,8 +172,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,10 +189,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,48 +508,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7208661C-38DA-440E-AC82-8E64297674CA}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J1" sqref="J1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>45434</v>
+      <c r="C2" s="4">
+        <v>45497</v>
       </c>
       <c r="D2" s="2">
         <v>5.300648760554683</v>
@@ -566,16 +563,17 @@
         <f>((D2-$E$7)/$E$7)*100</f>
         <v>-67.323256325708826</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
-        <v>45434</v>
+      <c r="C3" s="4">
+        <v>45497</v>
       </c>
       <c r="D3" s="2">
         <v>5.5780680576066812</v>
@@ -584,16 +582,17 @@
         <f t="shared" ref="F3:F46" si="0">((D3-$E$7)/$E$7)*100</f>
         <v>-65.613058259477853</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
-        <v>45434</v>
+      <c r="C4" s="4">
+        <v>45497</v>
       </c>
       <c r="D4" s="2">
         <v>6.7153363774192671</v>
@@ -602,16 +601,17 @@
         <f t="shared" si="0"/>
         <v>-58.60217580826658</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
-        <v>45434</v>
+      <c r="C5" s="4">
+        <v>45497</v>
       </c>
       <c r="D5" s="2">
         <v>6.1213037810686677</v>
@@ -620,16 +620,17 @@
         <f t="shared" si="0"/>
         <v>-62.264189980865879</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
-        <v>45434</v>
+      <c r="C6" s="4">
+        <v>45497</v>
       </c>
       <c r="D6" s="2">
         <v>6.2177463441265335</v>
@@ -638,16 +639,17 @@
         <f t="shared" si="0"/>
         <v>-61.669653527934834</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
-        <v>45437</v>
+      <c r="C7" s="4">
+        <v>45500</v>
       </c>
       <c r="D7" s="2">
         <v>14.307728934437399</v>
@@ -659,16 +661,17 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
-        <v>45437</v>
+      <c r="C8" s="4">
+        <v>45500</v>
       </c>
       <c r="D8" s="2">
         <v>16.394691388851601</v>
@@ -676,16 +679,17 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
-        <v>45437</v>
+      <c r="C9" s="4">
+        <v>45500</v>
       </c>
       <c r="D9" s="2">
         <v>16.637886978894134</v>
@@ -693,16 +697,17 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3">
-        <v>45437</v>
+      <c r="C10" s="4">
+        <v>45500</v>
       </c>
       <c r="D10" s="2">
         <v>15.827164238418867</v>
@@ -710,16 +715,17 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3">
-        <v>45437</v>
+      <c r="C11" s="4">
+        <v>45500</v>
       </c>
       <c r="D11" s="2">
         <v>17.939887463548601</v>
@@ -727,16 +733,17 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="3">
-        <v>45437</v>
+      <c r="C12" s="4">
+        <v>45500</v>
       </c>
       <c r="D12" s="2">
         <v>20.291681088047113</v>
@@ -749,16 +756,17 @@
         <f t="shared" si="0"/>
         <v>25.09149192620551</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3">
-        <v>45437</v>
+      <c r="C13" s="4">
+        <v>45500</v>
       </c>
       <c r="D13" s="2">
         <v>12.482459260986003</v>
@@ -767,16 +775,17 @@
         <f t="shared" si="0"/>
         <v>-23.049773693486777</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3">
-        <v>45437</v>
+      <c r="C14" s="4">
+        <v>45500</v>
       </c>
       <c r="D14" s="2">
         <v>41.092548349761337</v>
@@ -785,16 +794,17 @@
         <f t="shared" si="0"/>
         <v>153.32194793605879</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3">
-        <v>45437</v>
+      <c r="C15" s="4">
+        <v>45500</v>
       </c>
       <c r="D15" s="2">
         <v>12.362064116983781</v>
@@ -803,16 +813,17 @@
         <f t="shared" si="0"/>
         <v>-23.791969873219745</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="3">
-        <v>45437</v>
+      <c r="C16" s="4">
+        <v>45500</v>
       </c>
       <c r="D16" s="2">
         <v>11.085238095555557</v>
@@ -821,16 +832,17 @@
         <f t="shared" si="0"/>
         <v>-31.663179323911418</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="3">
-        <v>45437</v>
+      <c r="C17" s="4">
+        <v>45500</v>
       </c>
       <c r="D17" s="2">
         <v>13.239416754092225</v>
@@ -843,16 +855,17 @@
         <f t="shared" si="0"/>
         <v>-18.383381504169616</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
-        <v>45437</v>
+      <c r="C18" s="4">
+        <v>45500</v>
       </c>
       <c r="D18" s="2">
         <v>12.417426793806223</v>
@@ -861,16 +874,17 @@
         <f t="shared" si="0"/>
         <v>-23.450677310484412</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3">
-        <v>45437</v>
+      <c r="C19" s="4">
+        <v>45500</v>
       </c>
       <c r="D19" s="2">
         <v>11.403664611210667</v>
@@ -879,16 +893,17 @@
         <f>((D19-$E$7)/$E$7)*100</f>
         <v>-29.700185339365483</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="3">
-        <v>45437</v>
+      <c r="C20" s="4">
+        <v>45500</v>
       </c>
       <c r="D20" s="2">
         <v>12.596939389129336</v>
@@ -897,16 +912,17 @@
         <f t="shared" si="0"/>
         <v>-22.344041627069263</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="3">
-        <v>45437</v>
+      <c r="C21" s="4">
+        <v>45500</v>
       </c>
       <c r="D21" s="2">
         <v>12.505704413094445</v>
@@ -915,16 +931,17 @@
         <f t="shared" si="0"/>
         <v>-22.906475031109835</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="3">
-        <v>45437</v>
+      <c r="C22" s="4">
+        <v>45500</v>
       </c>
       <c r="D22" s="2">
         <v>11.301971957733112</v>
@@ -937,16 +954,17 @@
         <f t="shared" si="0"/>
         <v>-30.327086860547738</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="3">
-        <v>45437</v>
+      <c r="C23" s="4">
+        <v>45500</v>
       </c>
       <c r="D23" s="2">
         <v>11.415480037805557</v>
@@ -955,16 +973,17 @@
         <f t="shared" si="0"/>
         <v>-29.627347148478972</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="3">
-        <v>45437</v>
+      <c r="C24" s="4">
+        <v>45500</v>
       </c>
       <c r="D24" s="2">
         <v>13.352780071368224</v>
@@ -973,16 +992,17 @@
         <f t="shared" si="0"/>
         <v>-17.684534206785678</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="3">
-        <v>45437</v>
+      <c r="C25" s="4">
+        <v>45500</v>
       </c>
       <c r="D25" s="2">
         <v>14.087033774161334</v>
@@ -991,16 +1011,17 @@
         <f t="shared" si="0"/>
         <v>-13.15810336371301</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="3">
-        <v>45437</v>
+      <c r="C26" s="4">
+        <v>45500</v>
       </c>
       <c r="D26" s="2">
         <v>13.58762247876</v>
@@ -1009,16 +1030,17 @@
         <f t="shared" si="0"/>
         <v>-16.236808560955208</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>45437</v>
+      <c r="C27" s="4">
+        <v>45500</v>
       </c>
       <c r="D27" s="2">
         <v>13.52905806273267</v>
@@ -1031,16 +1053,17 @@
         <f t="shared" si="0"/>
         <v>-16.597838785255405</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
-        <v>45437</v>
+      <c r="C28" s="4">
+        <v>45500</v>
       </c>
       <c r="D28" s="2">
         <v>12.837793224476002</v>
@@ -1049,16 +1072,17 @@
         <f t="shared" si="0"/>
         <v>-20.859257519289716</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="3">
-        <v>45437</v>
+      <c r="C29" s="4">
+        <v>45500</v>
       </c>
       <c r="D29" s="2">
         <v>13.268441900415779</v>
@@ -1067,16 +1091,17 @@
         <f t="shared" si="0"/>
         <v>-18.204451092182786</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="3">
-        <v>45437</v>
+      <c r="C30" s="4">
+        <v>45500</v>
       </c>
       <c r="D30" s="2">
         <v>13.478201791112669</v>
@@ -1085,16 +1110,17 @@
         <f t="shared" si="0"/>
         <v>-16.911350852744857</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="3">
-        <v>45437</v>
+      <c r="C31" s="4">
+        <v>45500</v>
       </c>
       <c r="D31" s="2">
         <v>12.947671324113779</v>
@@ -1103,16 +1129,17 @@
         <f t="shared" si="0"/>
         <v>-20.181895434104856</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="3">
-        <v>45437</v>
+      <c r="C32" s="4">
+        <v>45500</v>
       </c>
       <c r="D32" s="2">
         <v>12.281425534028447</v>
@@ -1125,16 +1152,17 @@
         <f t="shared" si="0"/>
         <v>-24.289080024169227</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
-        <v>45437</v>
+      <c r="C33" s="4">
+        <v>45500</v>
       </c>
       <c r="D33" s="2">
         <v>14.235325856062667</v>
@@ -1143,16 +1171,17 @@
         <f t="shared" si="0"/>
         <v>-12.243931803190714</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="3">
-        <v>45437</v>
+      <c r="C34" s="4">
+        <v>45500</v>
       </c>
       <c r="D34" s="2">
         <v>13.228024810000001</v>
@@ -1161,16 +1190,17 @@
         <f t="shared" si="0"/>
         <v>-18.453609065713334</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="3">
-        <v>45437</v>
+      <c r="C35" s="4">
+        <v>45500</v>
       </c>
       <c r="D35" s="2">
         <v>10.533992315000001</v>
@@ -1179,16 +1209,17 @@
         <f t="shared" si="0"/>
         <v>-35.061426951030839</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="3">
-        <v>45437</v>
+      <c r="C36" s="4">
+        <v>45500</v>
       </c>
       <c r="D36" s="2">
         <v>13.533018925719334</v>
@@ -1197,16 +1228,17 @@
         <f t="shared" si="0"/>
         <v>-16.57342137704919</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>17</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="3">
-        <v>45437</v>
+      <c r="C37" s="4">
+        <v>45500</v>
       </c>
       <c r="D37" s="2">
         <v>11.994449427434224</v>
@@ -1219,16 +1251,17 @@
         <f t="shared" si="0"/>
         <v>-26.058192655364238</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="3">
-        <v>45437</v>
+      <c r="C38" s="4">
+        <v>45500</v>
       </c>
       <c r="D38" s="2">
         <v>15.768334094973779</v>
@@ -1237,16 +1270,17 @@
         <f t="shared" si="0"/>
         <v>-2.7934438466499163</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="3">
-        <v>45437</v>
+      <c r="C39" s="4">
+        <v>45500</v>
       </c>
       <c r="D39" s="2">
         <v>12.534048535555556</v>
@@ -1255,16 +1289,17 @@
         <f t="shared" si="0"/>
         <v>-22.731742905633652</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="3">
-        <v>45437</v>
+      <c r="C40" s="4">
+        <v>45500</v>
       </c>
       <c r="D40" s="2">
         <v>13.161469388923781</v>
@@ -1273,16 +1308,17 @@
         <f t="shared" si="0"/>
         <v>-18.863901188976861</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="3">
-        <v>45437</v>
+      <c r="C41" s="4">
+        <v>45500</v>
       </c>
       <c r="D41" s="2">
         <v>12.559932965848889</v>
@@ -1291,16 +1327,17 @@
         <f t="shared" si="0"/>
         <v>-22.572173967554875</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="3">
-        <v>45437</v>
+      <c r="C42" s="4">
+        <v>45500</v>
       </c>
       <c r="D42" s="2">
         <v>8.2971524961111136</v>
@@ -1313,16 +1350,17 @@
         <f t="shared" si="0"/>
         <v>-48.850803441359034</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="3">
-        <v>45437</v>
+      <c r="C43" s="4">
+        <v>45500</v>
       </c>
       <c r="D43" s="2">
         <v>12.378602133333334</v>
@@ -1331,16 +1369,17 @@
         <f t="shared" si="0"/>
         <v>-23.690018480937898</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="3">
-        <v>45437</v>
+      <c r="C44" s="4">
+        <v>45500</v>
       </c>
       <c r="D44" s="2">
         <v>12.562075520790422</v>
@@ -1349,16 +1388,17 @@
         <f t="shared" si="0"/>
         <v>-22.558965826099893</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="3">
-        <v>45437</v>
+      <c r="C45" s="4">
+        <v>45500</v>
       </c>
       <c r="D45" s="2">
         <v>11.268722463689009</v>
@@ -1367,16 +1407,17 @@
         <f t="shared" si="0"/>
         <v>-30.532058976841164</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>18</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="3">
-        <v>45437</v>
+      <c r="C46" s="4">
+        <v>45500</v>
       </c>
       <c r="D46" s="2">
         <v>11.753977921211431</v>
@@ -1385,6 +1426,7 @@
         <f t="shared" si="0"/>
         <v>-27.540619830748454</v>
       </c>
+      <c r="L46" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
